--- a/clinicr-import/src/files/invalid_patients_history.xlsx
+++ b/clinicr-import/src/files/invalid_patients_history.xlsx
@@ -33,12 +33,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -402,13 +402,2231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Code</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Mobile No</v>
+      </c>
+      <c r="D1" t="str">
+        <v>History Date</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Category</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Cost</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Remaining</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Doctor Name</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Item Name</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Aiten El Attar</v>
+      </c>
+      <c r="B2" t="str">
+        <v>C1103562</v>
+      </c>
+      <c r="C2" t="str">
+        <v>01273370333</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2022-09-18</v>
+      </c>
+      <c r="E2" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F2" t="str">
+        <v>250</v>
+      </c>
+      <c r="G2" t="str">
+        <v>250</v>
+      </c>
+      <c r="H2" t="str">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J2" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="str">
+        <v>01015357456</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2020-11-02</v>
+      </c>
+      <c r="E3" t="str">
+        <v>DEKA Laser Hair Removal</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J3" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Deka_Under Arms</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Alaa Mohamed</v>
+      </c>
+      <c r="B4" t="str">
+        <v>C1105246</v>
+      </c>
+      <c r="C4" t="str">
+        <v>01273747418</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2022-10-30</v>
+      </c>
+      <c r="E4" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F4" t="str">
+        <v>250</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <v>250</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J4" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve">aliaa el aghoury </v>
+      </c>
+      <c r="B5" t="str">
+        <v>C1105054</v>
+      </c>
+      <c r="C5" t="str">
+        <v>01001481030</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2023-01-01</v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F5" t="str">
+        <v>500</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <v>500</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Aya ELSharqawy</v>
+      </c>
+      <c r="J5" t="str">
+        <v>aya.elsharqawy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
+        <v>01090786784</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2020-12-03</v>
+      </c>
+      <c r="E6" t="str">
+        <v>DEKA Laser Hair Removal</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J6" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Deka_Half Arms</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="str">
+        <v>01018181418</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2020-11-22</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Visit</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J7" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Visit</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="str">
+        <v>01094060402</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2020-12-28</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J8" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K8" t="str">
+        <v xml:space="preserve">Melanin Face </v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="str">
+        <v>01032985550</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2021-01-02</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J9" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K9" t="str">
+        <v xml:space="preserve">Acelia </v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="str">
+        <v>01202736399</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2020-12-17</v>
+      </c>
+      <c r="E10" t="str">
+        <v>DEKA Laser Hair Removal</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J10" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Deka_Bikini</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="str">
+        <v>01280408115</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2020-12-27</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J11" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Melanin Bikini</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>01208972606</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2021-01-10</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J12" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K12" t="str">
+        <v>Lumix Post</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>01222325825</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2020-11-21</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Visit</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J13" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Visit</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>azza moustafa</v>
+      </c>
+      <c r="B14" t="str">
+        <v>C1103306</v>
+      </c>
+      <c r="C14" t="str">
+        <v>01227276763</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2022-09-25</v>
+      </c>
+      <c r="E14" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F14" t="str">
+        <v>500</v>
+      </c>
+      <c r="G14" t="str">
+        <v>500</v>
+      </c>
+      <c r="H14" t="str">
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J14" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>basma magdy</v>
+      </c>
+      <c r="B15" t="str">
+        <v>C1104490</v>
+      </c>
+      <c r="C15" t="str">
+        <v>01110977718</v>
+      </c>
+      <c r="D15" t="str">
+        <v>2022-10-16</v>
+      </c>
+      <c r="E15" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F15" t="str">
+        <v>250</v>
+      </c>
+      <c r="G15" t="str">
+        <v>250</v>
+      </c>
+      <c r="H15" t="str">
+        <v>0</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J15" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>01011469041</v>
+      </c>
+      <c r="D16" t="str">
+        <v>2021-02-20</v>
+      </c>
+      <c r="E16" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I16" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J16" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>01211647453</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2021-02-28</v>
+      </c>
+      <c r="E17" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I17" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J17" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>01202713567</v>
+      </c>
+      <c r="D18" t="str">
+        <v>2021-03-01</v>
+      </c>
+      <c r="E18" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I18" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J18" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>01033443126</v>
+      </c>
+      <c r="D19" t="str">
+        <v>2021-03-20</v>
+      </c>
+      <c r="E19" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I19" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J19" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>01099040408</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2021-03-25</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J20" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K20" t="str">
+        <v xml:space="preserve">Acelia </v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>01272636473</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2021-04-14</v>
+      </c>
+      <c r="E21" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I21" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J21" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>01270404442</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2021-02-10</v>
+      </c>
+      <c r="E22" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I22" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J22" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v xml:space="preserve">Dina Hesham </v>
+      </c>
+      <c r="B23" t="str">
+        <v>C1105453</v>
+      </c>
+      <c r="C23" t="str">
+        <v>01226320053</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2022-12-04</v>
+      </c>
+      <c r="E23" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F23" t="str">
+        <v>1000</v>
+      </c>
+      <c r="G23" t="str">
+        <v>1000</v>
+      </c>
+      <c r="H23" t="str">
+        <v>0</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J23" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>01002908388</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2021-02-16</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J24" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K24" t="str">
+        <v xml:space="preserve">Acelia </v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>01140165978</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2021-03-10</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J25" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K25" t="str">
+        <v xml:space="preserve">Acelia </v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>01008282894</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2021-02-24</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J26" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K26" t="str">
+        <v xml:space="preserve">Melanin Face </v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>01010992176</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2021-03-17</v>
+      </c>
+      <c r="E27" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I27" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J27" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>01122480002</v>
+      </c>
+      <c r="D28" t="str">
+        <v>2021-04-25</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J28" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Innotox</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>01280035022</v>
+      </c>
+      <c r="D29" t="str">
+        <v>2021-05-03</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J29" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Innotox</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>01002300713</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2021-04-27</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J30" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Innotox</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>01227462260</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2021-05-19</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J31" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K31" t="str">
+        <v xml:space="preserve">Chemical Peeling Face Area </v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>fatma mohamed</v>
+      </c>
+      <c r="B32" t="str">
+        <v>C1105734</v>
+      </c>
+      <c r="C32" t="str">
+        <v>01559789960</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2023-02-04</v>
+      </c>
+      <c r="E32" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F32" t="str">
+        <v>500</v>
+      </c>
+      <c r="G32" t="str">
+        <v>500</v>
+      </c>
+      <c r="H32" t="str">
+        <v>0</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Aya ELSharqawy</v>
+      </c>
+      <c r="J32" t="str">
+        <v>aya.elsharqawy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>01008237210</v>
+      </c>
+      <c r="D33" t="str">
+        <v>2021-07-15</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J33" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Innotox</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>01206033006</v>
+      </c>
+      <c r="D34" t="str">
+        <v>2021-07-25</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J34" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Innotox</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v xml:space="preserve">Hadeer Aly </v>
+      </c>
+      <c r="B35" t="str">
+        <v>C1100939</v>
+      </c>
+      <c r="C35" t="str">
+        <v>01226969252</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2022-10-30</v>
+      </c>
+      <c r="E35" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F35" t="str">
+        <v>500</v>
+      </c>
+      <c r="G35" t="str">
+        <v>500</v>
+      </c>
+      <c r="H35" t="str">
+        <v>0</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J35" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>01110998550</v>
+      </c>
+      <c r="D36" t="str">
+        <v>2021-08-14</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J36" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K36" t="str">
+        <v xml:space="preserve">Chemical Peeling Face Area </v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>01222835977</v>
+      </c>
+      <c r="D37" t="str">
+        <v>2021-08-24</v>
+      </c>
+      <c r="E37" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I37" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J37" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>01223807062</v>
+      </c>
+      <c r="D38" t="str">
+        <v>2021-08-15</v>
+      </c>
+      <c r="E38" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I38" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J38" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>01022733814</v>
+      </c>
+      <c r="D39" t="str">
+        <v>2021-08-28</v>
+      </c>
+      <c r="E39" t="str">
+        <v xml:space="preserve">CANDELA Laser Hair Removal </v>
+      </c>
+      <c r="I39" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J39" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Candela_Full.Arms</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Howaida Elmlwany</v>
+      </c>
+      <c r="B40" t="str">
+        <v>C1105561</v>
+      </c>
+      <c r="C40" t="str">
+        <v>01222152045</v>
+      </c>
+      <c r="D40" t="str">
+        <v>2022-12-25</v>
+      </c>
+      <c r="E40" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F40" t="str">
+        <v>500</v>
+      </c>
+      <c r="G40" t="str">
+        <v>500</v>
+      </c>
+      <c r="H40" t="str">
+        <v>0</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J40" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Jailan</v>
+      </c>
+      <c r="B41" t="str">
+        <v>C1104835</v>
+      </c>
+      <c r="C41" t="str">
+        <v>01000094578</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2022-11-24</v>
+      </c>
+      <c r="E41" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F41" t="str">
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <v>0</v>
+      </c>
+      <c r="H41" t="str">
+        <v>0</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J41" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>01126369866</v>
+      </c>
+      <c r="D42" t="str">
+        <v>2021-10-30</v>
+      </c>
+      <c r="E42" t="str">
+        <v xml:space="preserve">CANDELA Laser Hair Removal </v>
+      </c>
+      <c r="I42" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J42" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K42" t="str">
+        <v>Candela_Half.Arms</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>01094905706</v>
+      </c>
+      <c r="D43" t="str">
+        <v>2021-11-08</v>
+      </c>
+      <c r="E43" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I43" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J43" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>01227632749</v>
+      </c>
+      <c r="D44" t="str">
+        <v>2021-11-13</v>
+      </c>
+      <c r="E44" t="str">
+        <v xml:space="preserve">CANDELA Laser Hair Removal </v>
+      </c>
+      <c r="I44" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J44" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Candela_Half.Arms</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>01280091815</v>
+      </c>
+      <c r="D45" t="str">
+        <v>2021-11-15</v>
+      </c>
+      <c r="E45" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I45" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J45" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>01006462641</v>
+      </c>
+      <c r="D46" t="str">
+        <v>2021-12-09</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Peeling</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J46" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K46" t="str">
+        <v xml:space="preserve">Acelia </v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>01002372923</v>
+      </c>
+      <c r="D47" t="str">
+        <v>2021-12-22</v>
+      </c>
+      <c r="E47" t="str">
+        <v xml:space="preserve">CANDELA Laser Hair Removal </v>
+      </c>
+      <c r="I47" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J47" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Candela_Half.Arms</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>01092921632</v>
+      </c>
+      <c r="D48" t="str">
+        <v>2021-12-28</v>
+      </c>
+      <c r="E48" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I48" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J48" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>marwa awad</v>
+      </c>
+      <c r="B49" t="str">
+        <v>C1105211</v>
+      </c>
+      <c r="C49" t="str">
+        <v>01012679777</v>
+      </c>
+      <c r="D49" t="str">
+        <v>2022-10-25</v>
+      </c>
+      <c r="E49" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F49" t="str">
+        <v>500</v>
+      </c>
+      <c r="G49" t="str">
+        <v>500</v>
+      </c>
+      <c r="H49" t="str">
+        <v>0</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J49" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>01050015513</v>
+      </c>
+      <c r="D50" t="str">
+        <v>2021-11-22</v>
+      </c>
+      <c r="E50" t="str">
+        <v xml:space="preserve">CANDELA Laser Hair Removal </v>
+      </c>
+      <c r="I50" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J50" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Candela_Face</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Merna Osama</v>
+      </c>
+      <c r="B51" t="str">
+        <v>C1104829</v>
+      </c>
+      <c r="C51" t="str">
+        <v>01277050886</v>
+      </c>
+      <c r="D51" t="str">
+        <v>2022-08-30</v>
+      </c>
+      <c r="E51" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F51" t="str">
+        <v>500</v>
+      </c>
+      <c r="G51" t="str">
+        <v>500</v>
+      </c>
+      <c r="H51" t="str">
+        <v>0</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J51" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>01021215582</v>
+      </c>
+      <c r="D52" t="str">
+        <v>2022-02-24</v>
+      </c>
+      <c r="E52" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I52" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J52" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K52" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>01000690064</v>
+      </c>
+      <c r="D53" t="str">
+        <v>2022-02-26</v>
+      </c>
+      <c r="E53" t="str">
+        <v xml:space="preserve">CANDELA Laser Hair Removal </v>
+      </c>
+      <c r="I53" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J53" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Candela_Under.Arm</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>01000109888</v>
+      </c>
+      <c r="D54" t="str">
+        <v>2022-02-28</v>
+      </c>
+      <c r="E54" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I54" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J54" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v xml:space="preserve">mona el fitory </v>
+      </c>
+      <c r="B55" t="str">
+        <v>C1105301</v>
+      </c>
+      <c r="C55" t="str">
+        <v>01286465557</v>
+      </c>
+      <c r="D55" t="str">
+        <v>2022-11-08</v>
+      </c>
+      <c r="E55" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F55" t="str">
+        <v>500</v>
+      </c>
+      <c r="G55" t="str">
+        <v>500</v>
+      </c>
+      <c r="H55" t="str">
+        <v>0</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J55" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Nada Adel</v>
+      </c>
+      <c r="B56" t="str">
+        <v>C1103992</v>
+      </c>
+      <c r="C56" t="str">
+        <v>01006175664</v>
+      </c>
+      <c r="D56" t="str">
+        <v>2022-05-24</v>
+      </c>
+      <c r="E56" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F56" t="str">
+        <v>500</v>
+      </c>
+      <c r="G56" t="str">
+        <v>500</v>
+      </c>
+      <c r="H56" t="str">
+        <v>0</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J56" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Nada Ahmed</v>
+      </c>
+      <c r="B57" t="str">
+        <v>C1104728</v>
+      </c>
+      <c r="C57" t="str">
+        <v>01067322997</v>
+      </c>
+      <c r="D57" t="str">
+        <v>2022-08-16</v>
+      </c>
+      <c r="E57" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F57" t="str">
+        <v>750</v>
+      </c>
+      <c r="G57" t="str">
+        <v>750</v>
+      </c>
+      <c r="H57" t="str">
+        <v>0</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J57" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>nermin abd elnaser</v>
+      </c>
+      <c r="B58" t="str">
+        <v>C1104528</v>
+      </c>
+      <c r="C58" t="str">
+        <v>01008458382</v>
+      </c>
+      <c r="D58" t="str">
+        <v>2022-08-14</v>
+      </c>
+      <c r="E58" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F58" t="str">
+        <v>500</v>
+      </c>
+      <c r="G58" t="str">
+        <v>0</v>
+      </c>
+      <c r="H58" t="str">
+        <v>500</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J58" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Nermin Ahmed</v>
+      </c>
+      <c r="B59" t="str">
+        <v>C1104195</v>
+      </c>
+      <c r="C59" t="str">
+        <v>01146001300</v>
+      </c>
+      <c r="D59" t="str">
+        <v>2022-11-02</v>
+      </c>
+      <c r="E59" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F59" t="str">
+        <v>250</v>
+      </c>
+      <c r="G59" t="str">
+        <v>250</v>
+      </c>
+      <c r="H59" t="str">
+        <v>0</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J59" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Nesma Said</v>
+      </c>
+      <c r="B60" t="str">
+        <v>C1105067</v>
+      </c>
+      <c r="C60" t="str">
+        <v>01011811338</v>
+      </c>
+      <c r="D60" t="str">
+        <v>2022-10-04</v>
+      </c>
+      <c r="E60" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F60" t="str">
+        <v>500</v>
+      </c>
+      <c r="G60" t="str">
+        <v>500</v>
+      </c>
+      <c r="H60" t="str">
+        <v>0</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J60" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>01008398283</v>
+      </c>
+      <c r="D61" t="str">
+        <v>2022-05-07</v>
+      </c>
+      <c r="E61" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I61" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J61" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K61" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Nivaan</v>
+      </c>
+      <c r="B62" t="str">
+        <v>C1104853</v>
+      </c>
+      <c r="C62" t="str">
+        <v>01276649650</v>
+      </c>
+      <c r="D62" t="str">
+        <v>2022-09-01</v>
+      </c>
+      <c r="E62" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F62" t="str">
+        <v>500</v>
+      </c>
+      <c r="G62" t="str">
+        <v>500</v>
+      </c>
+      <c r="H62" t="str">
+        <v>0</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J62" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>nour turkey</v>
+      </c>
+      <c r="B63" t="str">
+        <v>C1104069</v>
+      </c>
+      <c r="C63" t="str">
+        <v>01008800866</v>
+      </c>
+      <c r="D63" t="str">
+        <v>2022-05-15</v>
+      </c>
+      <c r="E63" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F63" t="str">
+        <v>500</v>
+      </c>
+      <c r="G63" t="str">
+        <v>500</v>
+      </c>
+      <c r="H63" t="str">
+        <v>0</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J63" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Noura Nouh</v>
+      </c>
+      <c r="B64" t="str">
+        <v>C1105597</v>
+      </c>
+      <c r="C64" t="str">
+        <v>01008680726</v>
+      </c>
+      <c r="D64" t="str">
+        <v>2022-12-29</v>
+      </c>
+      <c r="E64" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F64" t="str">
+        <v>500</v>
+      </c>
+      <c r="G64" t="str">
+        <v>500</v>
+      </c>
+      <c r="H64" t="str">
+        <v>0</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J64" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>01009352222</v>
+      </c>
+      <c r="D65" t="str">
+        <v>2022-07-16</v>
+      </c>
+      <c r="E65" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I65" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J65" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K65" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Rana Farag</v>
+      </c>
+      <c r="B66" t="str">
+        <v>C1104918</v>
+      </c>
+      <c r="C66" t="str">
+        <v>01016233409</v>
+      </c>
+      <c r="D66" t="str">
+        <v>2022-09-14</v>
+      </c>
+      <c r="E66" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F66" t="str">
+        <v>250</v>
+      </c>
+      <c r="G66" t="str">
+        <v>250</v>
+      </c>
+      <c r="H66" t="str">
+        <v>0</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J66" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Raneem Mohamed</v>
+      </c>
+      <c r="B67" t="str">
+        <v>C1103487</v>
+      </c>
+      <c r="C67" t="str">
+        <v>01222269166</v>
+      </c>
+      <c r="D67" t="str">
+        <v>2022-12-29</v>
+      </c>
+      <c r="E67" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F67" t="str">
+        <v>500</v>
+      </c>
+      <c r="G67" t="str">
+        <v>500</v>
+      </c>
+      <c r="H67" t="str">
+        <v>0</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J67" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>rania elsayed</v>
+      </c>
+      <c r="B68" t="str">
+        <v>C1105525</v>
+      </c>
+      <c r="C68" t="str">
+        <v>01144139999</v>
+      </c>
+      <c r="D68" t="str">
+        <v>2022-12-18</v>
+      </c>
+      <c r="E68" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F68" t="str">
+        <v>500</v>
+      </c>
+      <c r="G68" t="str">
+        <v>500</v>
+      </c>
+      <c r="H68" t="str">
+        <v>0</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J68" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Rania Mohamed</v>
+      </c>
+      <c r="B69" t="str">
+        <v>C1104981</v>
+      </c>
+      <c r="C69" t="str">
+        <v>01002002520</v>
+      </c>
+      <c r="D69" t="str">
+        <v>2022-10-19</v>
+      </c>
+      <c r="E69" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F69" t="str">
+        <v>250</v>
+      </c>
+      <c r="G69" t="str">
+        <v>250</v>
+      </c>
+      <c r="H69" t="str">
+        <v>0</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J69" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Rasha Raouf</v>
+      </c>
+      <c r="B70" t="str">
+        <v>C1105068</v>
+      </c>
+      <c r="C70" t="str">
+        <v>01202452881</v>
+      </c>
+      <c r="D70" t="str">
+        <v>2022-10-18</v>
+      </c>
+      <c r="E70" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F70" t="str">
+        <v>240</v>
+      </c>
+      <c r="G70" t="str">
+        <v>240</v>
+      </c>
+      <c r="H70" t="str">
+        <v>0</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J70" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Rehab Atef</v>
+      </c>
+      <c r="B71" t="str">
+        <v>C1105307</v>
+      </c>
+      <c r="C71" t="str">
+        <v>01005805184</v>
+      </c>
+      <c r="D71" t="str">
+        <v>2022-12-01</v>
+      </c>
+      <c r="E71" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F71" t="str">
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <v>0</v>
+      </c>
+      <c r="H71" t="str">
+        <v>0</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J71" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>01124655565</v>
+      </c>
+      <c r="D72" t="str">
+        <v>2022-08-14</v>
+      </c>
+      <c r="E72" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I72" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J72" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K72" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Salma Abu Zaid</v>
+      </c>
+      <c r="B73" t="str">
+        <v>C1101466</v>
+      </c>
+      <c r="C73" t="str">
+        <v>01014999436</v>
+      </c>
+      <c r="D73" t="str">
+        <v>2022-08-30</v>
+      </c>
+      <c r="E73" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F73" t="str">
+        <v>250</v>
+      </c>
+      <c r="G73" t="str">
+        <v>250</v>
+      </c>
+      <c r="H73" t="str">
+        <v>0</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J73" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>01151707180</v>
+      </c>
+      <c r="D74" t="str">
+        <v>2022-09-06</v>
+      </c>
+      <c r="E74" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I74" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J74" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K74" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Samar Gamal</v>
+      </c>
+      <c r="B75" t="str">
+        <v>C1103198</v>
+      </c>
+      <c r="C75" t="str">
+        <v>01000223328</v>
+      </c>
+      <c r="D75" t="str">
+        <v>2022-11-27</v>
+      </c>
+      <c r="E75" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F75" t="str">
+        <v>200</v>
+      </c>
+      <c r="G75" t="str">
+        <v>200</v>
+      </c>
+      <c r="H75" t="str">
+        <v>0</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J75" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>01203939746</v>
+      </c>
+      <c r="D76" t="str">
+        <v>2022-10-06</v>
+      </c>
+      <c r="E76" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I76" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J76" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K76" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>samiha aly</v>
+      </c>
+      <c r="B77" t="str">
+        <v>C1105044</v>
+      </c>
+      <c r="C77" t="str">
+        <v>01001901411</v>
+      </c>
+      <c r="D77" t="str">
+        <v>2022-10-02</v>
+      </c>
+      <c r="E77" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F77" t="str">
+        <v>100</v>
+      </c>
+      <c r="G77" t="str">
+        <v>100</v>
+      </c>
+      <c r="H77" t="str">
+        <v>0</v>
+      </c>
+      <c r="I77" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J77" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>samiha aly</v>
+      </c>
+      <c r="B78" t="str">
+        <v>C1105044</v>
+      </c>
+      <c r="C78" t="str">
+        <v>01001901411</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2022-10-02</v>
+      </c>
+      <c r="E78" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="G78" t="str">
+        <v>100</v>
+      </c>
+      <c r="I78" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J78" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Sara Ali</v>
+      </c>
+      <c r="B79" t="str">
+        <v>C1101310</v>
+      </c>
+      <c r="C79" t="str">
+        <v>01011299095</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2022-07-23</v>
+      </c>
+      <c r="E79" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F79" t="str">
+        <v>500</v>
+      </c>
+      <c r="G79" t="str">
+        <v>0</v>
+      </c>
+      <c r="H79" t="str">
+        <v>500</v>
+      </c>
+      <c r="I79" t="str">
+        <v>Esraa El baz</v>
+      </c>
+      <c r="J79" t="str">
+        <v>esraa.elbaz@lushelle.com</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Sara Hamdy</v>
+      </c>
+      <c r="B80" t="str">
+        <v>C1104509</v>
+      </c>
+      <c r="C80" t="str">
+        <v>01006427191</v>
+      </c>
+      <c r="D80" t="str">
+        <v>2022-07-23</v>
+      </c>
+      <c r="E80" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F80" t="str">
+        <v>650</v>
+      </c>
+      <c r="G80" t="str">
+        <v>0</v>
+      </c>
+      <c r="H80" t="str">
+        <v>650</v>
+      </c>
+      <c r="I80" t="str">
+        <v>Esraa El baz</v>
+      </c>
+      <c r="J80" t="str">
+        <v>esraa.elbaz@lushelle.com</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>01001463666</v>
+      </c>
+      <c r="D81" t="str">
+        <v>2022-10-06</v>
+      </c>
+      <c r="E81" t="str">
+        <v xml:space="preserve">Carbo Therapy </v>
+      </c>
+      <c r="I81" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="J81" t="str">
+        <v>doctor@lushelle.com</v>
+      </c>
+      <c r="K81" t="str">
+        <v>Carboxy Eye</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Sara Hassan</v>
+      </c>
+      <c r="B82" t="str">
+        <v>C1104832</v>
+      </c>
+      <c r="C82" t="str">
+        <v>01555519255</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2022-08-30</v>
+      </c>
+      <c r="E82" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F82" t="str">
+        <v>750</v>
+      </c>
+      <c r="G82" t="str">
+        <v>750</v>
+      </c>
+      <c r="H82" t="str">
+        <v>0</v>
+      </c>
+      <c r="I82" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J82" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>sherihan megahd</v>
+      </c>
+      <c r="B83" t="str">
+        <v>C1104854</v>
+      </c>
+      <c r="C83" t="str">
+        <v>01150116655</v>
+      </c>
+      <c r="D83" t="str">
+        <v>2022-09-04</v>
+      </c>
+      <c r="E83" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F83" t="str">
+        <v>250</v>
+      </c>
+      <c r="G83" t="str">
+        <v>250</v>
+      </c>
+      <c r="H83" t="str">
+        <v>0</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J83" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Shimaa Sharawy</v>
+      </c>
+      <c r="B84" t="str">
+        <v>C1104482</v>
+      </c>
+      <c r="C84" t="str">
+        <v>01012300513</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2022-12-27</v>
+      </c>
+      <c r="E84" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F84" t="str">
+        <v>250</v>
+      </c>
+      <c r="G84" t="str">
+        <v>250</v>
+      </c>
+      <c r="H84" t="str">
+        <v>0</v>
+      </c>
+      <c r="I84" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J84" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Wafaa Diab</v>
+      </c>
+      <c r="B85" t="str">
+        <v>C1104491</v>
+      </c>
+      <c r="C85" t="str">
+        <v>01003233302</v>
+      </c>
+      <c r="D85" t="str">
+        <v>2022-10-26</v>
+      </c>
+      <c r="E85" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F85" t="str">
+        <v>250</v>
+      </c>
+      <c r="G85" t="str">
+        <v>250</v>
+      </c>
+      <c r="H85" t="str">
+        <v>0</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J85" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Yasmien Ebrahiem</v>
+      </c>
+      <c r="B86" t="str">
+        <v>C1103503</v>
+      </c>
+      <c r="C86" t="str">
+        <v>01030864935</v>
+      </c>
+      <c r="D86" t="str">
+        <v>2022-10-27</v>
+      </c>
+      <c r="E86" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F86" t="str">
+        <v>500</v>
+      </c>
+      <c r="G86" t="str">
+        <v>500</v>
+      </c>
+      <c r="H86" t="str">
+        <v>0</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J86" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v xml:space="preserve">Zenab Samer </v>
+      </c>
+      <c r="B87" t="str">
+        <v>C1104103</v>
+      </c>
+      <c r="C87" t="str">
+        <v>01277384692</v>
+      </c>
+      <c r="D87" t="str">
+        <v>2022-05-19</v>
+      </c>
+      <c r="E87" t="str">
+        <v xml:space="preserve">Hyaluronidase </v>
+      </c>
+      <c r="F87" t="str">
+        <v>500</v>
+      </c>
+      <c r="G87" t="str">
+        <v>500</v>
+      </c>
+      <c r="H87" t="str">
+        <v>0</v>
+      </c>
+      <c r="I87" t="str">
+        <v>Ghada El samadisy</v>
+      </c>
+      <c r="J87" t="str">
+        <v>ghada.elsamadisy@lushelle.com</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K87"/>
   </ignoredErrors>
 </worksheet>
 </file>